--- a/Database/DB Schema.xlsx
+++ b/Database/DB Schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Doc Scans TatvaSoft\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Training Tatvasoft\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1388549-27E2-431A-A59B-11899CAA2005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90749E3C-8ADE-4831-BD9C-D4BD6D3E206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{108403F9-BBFB-4B2E-B1A8-E1434E848DB0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="72">
   <si>
     <t>FieldName</t>
   </si>
@@ -586,16 +586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,7 +598,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE913A6-E13F-4F27-87B1-A48A020A59C0}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -940,12 +940,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,12 +1117,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1169,12 +1169,12 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1215,12 +1215,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1333,12 +1333,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -1531,12 +1531,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -1577,12 +1577,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1769,12 +1769,12 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
@@ -1827,12 +1827,12 @@
       <c r="I76" s="15"/>
     </row>
     <row r="78" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
@@ -1862,19 +1862,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
-        <v>58</v>
+      <c r="D81" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>4</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>4</v>
@@ -1898,73 +1898,69 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="B85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5">
         <v>100</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
+    <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="5">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>6</v>
@@ -1980,40 +1976,56 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="16">
-        <v>20</v>
+      <c r="C92" s="5">
+        <v>50</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="15"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="A93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="16">
+        <v>20</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="14"/>
       <c r="F93" s="15"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2021,7 +2033,7 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A56:D56"/>
